--- a/biology/Botanique/Thunbergia_grandiflora/Thunbergia_grandiflora.xlsx
+++ b/biology/Botanique/Thunbergia_grandiflora/Thunbergia_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thunbergia grandiflora est une espèce de plante de la famille des Acanthaceae.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme une liane pérenne[1].
-Feuilles
-Les feuilles sont simples, opposées, entières, pétiolées, avec un limbe ovale à légèrement triangulaire constitué de 1 à 3 lobes anguleux[1].
-Fleurs
-Les inflorescences sont des grappes de fleurs bleu clair ou bleu foncé à gorge crème, blanches chez la variété Alba.
-Fruits
-Le fruit est une capsule ovoïde qui se termine par un long bec droit et épais. Ses deux loges contiennent chacune une graine noire[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme une liane pérenne.
 </t>
         </is>
       </c>
@@ -546,15 +557,163 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont simples, opposées, entières, pétiolées, avec un limbe ovale à légèrement triangulaire constitué de 1 à 3 lobes anguleux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thunbergia_grandiflora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thunbergia_grandiflora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont des grappes de fleurs bleu clair ou bleu foncé à gorge crème, blanches chez la variété Alba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thunbergia_grandiflora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thunbergia_grandiflora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule ovoïde qui se termine par un long bec droit et épais. Ses deux loges contiennent chacune une graine noire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thunbergia_grandiflora</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thunbergia_grandiflora</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire d'Inde (Bengale), du Pakistan et de la Birmanie, elle a été introduite dans de nombreuses zones tropicales. On la retrouve notamment dans des îles du Pacifique comme Hawaii et la Nouvelle-Calédonie[1].
-Caractère envahissant
-Cette espèce est envahissante dans les lisières et les clairières de certaines forêts humides d'Australie, ainsi qu'en Nouvelle-Calédonie[1] et à Hawaii[2].
-En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Inde (Bengale), du Pakistan et de la Birmanie, elle a été introduite dans de nombreuses zones tropicales. On la retrouve notamment dans des îles du Pacifique comme Hawaii et la Nouvelle-Calédonie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thunbergia_grandiflora</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thunbergia_grandiflora</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est envahissante dans les lisières et les clairières de certaines forêts humides d'Australie, ainsi qu'en Nouvelle-Calédonie et à Hawaii.
+En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
 </t>
         </is>
       </c>
